--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il25-Il17rb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il25-Il17rb.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.3424935</v>
+        <v>1.517692</v>
       </c>
       <c r="N2">
-        <v>2.684987</v>
+        <v>3.035384</v>
       </c>
       <c r="O2">
-        <v>0.1531021816890919</v>
+        <v>0.2124765719089707</v>
       </c>
       <c r="P2">
-        <v>0.1194837990086757</v>
+        <v>0.1667654129984748</v>
       </c>
       <c r="Q2">
-        <v>0.06905741814216666</v>
+        <v>0.07806957058266666</v>
       </c>
       <c r="R2">
-        <v>0.4143445088529999</v>
+        <v>0.468417423496</v>
       </c>
       <c r="S2">
-        <v>0.1531021816890919</v>
+        <v>0.2124765719089707</v>
       </c>
       <c r="T2">
-        <v>0.1194837990086757</v>
+        <v>0.1667654129984748</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.5136346666666666</v>
+        <v>0.5136346666666667</v>
       </c>
       <c r="N3">
         <v>1.540904</v>
       </c>
       <c r="O3">
-        <v>0.05857651307646267</v>
+        <v>0.07190874906564719</v>
       </c>
       <c r="P3">
-        <v>0.0685713054952089</v>
+        <v>0.08465798460787891</v>
       </c>
       <c r="Q3">
-        <v>0.02642119604177777</v>
+        <v>0.02642119604177778</v>
       </c>
       <c r="R3">
         <v>0.237790764376</v>
       </c>
       <c r="S3">
-        <v>0.05857651307646267</v>
+        <v>0.07190874906564719</v>
       </c>
       <c r="T3">
-        <v>0.0685713054952089</v>
+        <v>0.08465798460787891</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.634555</v>
+        <v>0.5411476666666667</v>
       </c>
       <c r="N4">
-        <v>4.903665</v>
+        <v>1.623443</v>
       </c>
       <c r="O4">
-        <v>0.186409793858081</v>
+        <v>0.07576056348051628</v>
       </c>
       <c r="P4">
-        <v>0.2182165214453098</v>
+        <v>0.08919271577318817</v>
       </c>
       <c r="Q4">
-        <v>0.08408096434833333</v>
+        <v>0.02783645559077778</v>
       </c>
       <c r="R4">
-        <v>0.7567286791350001</v>
+        <v>0.250528100317</v>
       </c>
       <c r="S4">
-        <v>0.186409793858081</v>
+        <v>0.07576056348051628</v>
       </c>
       <c r="T4">
-        <v>0.2182165214453098</v>
+        <v>0.08919271577318817</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.491783</v>
+        <v>1.7093905</v>
       </c>
       <c r="N5">
-        <v>4.983566</v>
+        <v>3.418781</v>
       </c>
       <c r="O5">
-        <v>0.28417077147546</v>
+        <v>0.2393143229942316</v>
       </c>
       <c r="P5">
-        <v>0.2217721718170219</v>
+        <v>0.1878294230371969</v>
       </c>
       <c r="Q5">
-        <v>0.1281764869256667</v>
+        <v>0.08793047752316667</v>
       </c>
       <c r="R5">
-        <v>0.769058921554</v>
+        <v>0.5275828651390001</v>
       </c>
       <c r="S5">
-        <v>0.28417077147546</v>
+        <v>0.2393143229942316</v>
       </c>
       <c r="T5">
-        <v>0.2217721718170219</v>
+        <v>0.1878294230371969</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.161538666666667</v>
+        <v>1.997216333333333</v>
       </c>
       <c r="N6">
-        <v>3.484616</v>
+        <v>5.991649</v>
       </c>
       <c r="O6">
-        <v>0.1324655232840275</v>
+        <v>0.2796098812323389</v>
       </c>
       <c r="P6">
-        <v>0.1550678486586399</v>
+        <v>0.3291839912271063</v>
       </c>
       <c r="Q6">
-        <v>0.05974916183377778</v>
+        <v>0.1027361424478889</v>
       </c>
       <c r="R6">
-        <v>0.537742456504</v>
+        <v>0.924625282031</v>
       </c>
       <c r="S6">
-        <v>0.1324655232840275</v>
+        <v>0.2796098812323389</v>
       </c>
       <c r="T6">
-        <v>0.1550678486586399</v>
+        <v>0.3291839912271063</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.624606333333333</v>
+        <v>0.8637863333333332</v>
       </c>
       <c r="N7">
-        <v>4.873818999999999</v>
+        <v>2.591359</v>
       </c>
       <c r="O7">
-        <v>0.185275216616877</v>
+        <v>0.1209299113182952</v>
       </c>
       <c r="P7">
-        <v>0.2168883535751439</v>
+        <v>0.1423704723561549</v>
       </c>
       <c r="Q7">
-        <v>0.08356920825122222</v>
+        <v>0.04443288105788888</v>
       </c>
       <c r="R7">
-        <v>0.7521228742609999</v>
+        <v>0.399895929521</v>
       </c>
       <c r="S7">
-        <v>0.185275216616877</v>
+        <v>0.1209299113182952</v>
       </c>
       <c r="T7">
-        <v>0.2168883535751439</v>
+        <v>0.1423704723561549</v>
       </c>
     </row>
   </sheetData>
